--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Gal-Gpr151.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Gal-Gpr151.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,15 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +95,6 @@
   </si>
   <si>
     <t>Gpr151</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.8713888928568</v>
+        <v>2.889856</v>
       </c>
       <c r="H2">
-        <v>2.8713888928568</v>
+        <v>8.669568</v>
       </c>
       <c r="I2">
-        <v>0.08431285145767899</v>
+        <v>0.06333786583275691</v>
       </c>
       <c r="J2">
-        <v>0.08431285145767899</v>
+        <v>0.06333786583275691</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.921371516929006</v>
+        <v>0.982088</v>
       </c>
       <c r="N2">
-        <v>0.921371516929006</v>
+        <v>2.946264</v>
       </c>
       <c r="O2">
-        <v>0.4635595249775182</v>
+        <v>0.437201213250788</v>
       </c>
       <c r="P2">
-        <v>0.4635595249775182</v>
+        <v>0.437201213250788</v>
       </c>
       <c r="Q2">
-        <v>2.645615939904569</v>
+        <v>2.838092899328</v>
       </c>
       <c r="R2">
-        <v>2.645615939904569</v>
+        <v>25.542836093952</v>
       </c>
       <c r="S2">
-        <v>0.03908402537122173</v>
+        <v>0.02769139178679695</v>
       </c>
       <c r="T2">
-        <v>0.03908402537122173</v>
+        <v>0.02769139178679695</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.8713888928568</v>
+        <v>2.889856</v>
       </c>
       <c r="H3">
-        <v>2.8713888928568</v>
+        <v>8.669568</v>
       </c>
       <c r="I3">
-        <v>0.08431285145767899</v>
+        <v>0.06333786583275691</v>
       </c>
       <c r="J3">
-        <v>0.08431285145767899</v>
+        <v>0.06333786583275691</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.21999027534684</v>
+        <v>0.2329506666666667</v>
       </c>
       <c r="N3">
-        <v>0.21999027534684</v>
+        <v>0.698852</v>
       </c>
       <c r="O3">
-        <v>0.1106812894318202</v>
+        <v>0.1037038575914242</v>
       </c>
       <c r="P3">
-        <v>0.1106812894318202</v>
+        <v>0.1037038575914242</v>
       </c>
       <c r="Q3">
-        <v>0.6316776331674254</v>
+        <v>0.6731938817706666</v>
       </c>
       <c r="R3">
-        <v>0.6316776331674254</v>
+        <v>6.058744935936001</v>
       </c>
       <c r="S3">
-        <v>0.009331855115009436</v>
+        <v>0.006568381018464953</v>
       </c>
       <c r="T3">
-        <v>0.009331855115009436</v>
+        <v>0.006568381018464953</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.8713888928568</v>
+        <v>2.889856</v>
       </c>
       <c r="H4">
-        <v>2.8713888928568</v>
+        <v>8.669568</v>
       </c>
       <c r="I4">
-        <v>0.08431285145767899</v>
+        <v>0.06333786583275691</v>
       </c>
       <c r="J4">
-        <v>0.08431285145767899</v>
+        <v>0.06333786583275691</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.46666220010915</v>
+        <v>0.4695563333333333</v>
       </c>
       <c r="N4">
-        <v>0.46666220010915</v>
+        <v>1.408669</v>
       </c>
       <c r="O4">
-        <v>0.2347866238893399</v>
+        <v>0.2090348305069655</v>
       </c>
       <c r="P4">
-        <v>0.2347866238893399</v>
+        <v>0.2090348305069655</v>
       </c>
       <c r="Q4">
-        <v>1.339968658109531</v>
+        <v>1.356950187221333</v>
       </c>
       <c r="R4">
-        <v>1.339968658109531</v>
+        <v>12.212551684992</v>
       </c>
       <c r="S4">
-        <v>0.01979552974423186</v>
+        <v>0.01323982004902326</v>
       </c>
       <c r="T4">
-        <v>0.01979552974423186</v>
+        <v>0.01323982004902326</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.8713888928568</v>
+        <v>2.889856</v>
       </c>
       <c r="H5">
-        <v>2.8713888928568</v>
+        <v>8.669568</v>
       </c>
       <c r="I5">
-        <v>0.08431285145767899</v>
+        <v>0.06333786583275691</v>
       </c>
       <c r="J5">
-        <v>0.08431285145767899</v>
+        <v>0.06333786583275691</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.379577312913802</v>
+        <v>0.1237366666666667</v>
       </c>
       <c r="N5">
-        <v>0.379577312913802</v>
+        <v>0.37121</v>
       </c>
       <c r="O5">
-        <v>0.1909725617013216</v>
+        <v>0.05508449425130437</v>
       </c>
       <c r="P5">
-        <v>0.1909725617013216</v>
+        <v>0.05508449425130438</v>
       </c>
       <c r="Q5">
-        <v>1.089914080281121</v>
+        <v>0.3575811485866667</v>
       </c>
       <c r="R5">
-        <v>1.089914080281121</v>
+        <v>3.218230337280001</v>
       </c>
       <c r="S5">
-        <v>0.01610144122721596</v>
+        <v>0.003488934306354386</v>
       </c>
       <c r="T5">
-        <v>0.01610144122721596</v>
+        <v>0.003488934306354386</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.1849719490974</v>
+        <v>2.889856</v>
       </c>
       <c r="H6">
-        <v>31.1849719490974</v>
+        <v>8.669568</v>
       </c>
       <c r="I6">
-        <v>0.9156871485423209</v>
+        <v>0.06333786583275691</v>
       </c>
       <c r="J6">
-        <v>0.9156871485423209</v>
+        <v>0.06333786583275691</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.921371516929006</v>
+        <v>0.437975</v>
       </c>
       <c r="N6">
-        <v>0.921371516929006</v>
+        <v>1.313925</v>
       </c>
       <c r="O6">
-        <v>0.4635595249775182</v>
+        <v>0.1949756043995181</v>
       </c>
       <c r="P6">
-        <v>0.4635595249775182</v>
+        <v>0.1949756043995181</v>
       </c>
       <c r="Q6">
-        <v>28.73294491012837</v>
+        <v>1.2656846816</v>
       </c>
       <c r="R6">
-        <v>28.73294491012837</v>
+        <v>11.3911621344</v>
       </c>
       <c r="S6">
-        <v>0.4244754996062964</v>
+        <v>0.01234933867211736</v>
       </c>
       <c r="T6">
-        <v>0.4244754996062964</v>
+        <v>0.01234933867211736</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>31.1849719490974</v>
+        <v>1.417397666666667</v>
       </c>
       <c r="H7">
-        <v>31.1849719490974</v>
+        <v>4.252193</v>
       </c>
       <c r="I7">
-        <v>0.9156871485423209</v>
+        <v>0.03106554210417268</v>
       </c>
       <c r="J7">
-        <v>0.9156871485423209</v>
+        <v>0.03106554210417268</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.21999027534684</v>
+        <v>0.982088</v>
       </c>
       <c r="N7">
-        <v>0.21999027534684</v>
+        <v>2.946264</v>
       </c>
       <c r="O7">
-        <v>0.1106812894318202</v>
+        <v>0.437201213250788</v>
       </c>
       <c r="P7">
-        <v>0.1106812894318202</v>
+        <v>0.437201213250788</v>
       </c>
       <c r="Q7">
-        <v>6.860390565765418</v>
+        <v>1.392009239661333</v>
       </c>
       <c r="R7">
-        <v>6.860390565765418</v>
+        <v>12.528083156952</v>
       </c>
       <c r="S7">
-        <v>0.1013494343168108</v>
+        <v>0.01358189269823773</v>
       </c>
       <c r="T7">
-        <v>0.1013494343168108</v>
+        <v>0.01358189269823773</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>31.1849719490974</v>
+        <v>1.417397666666667</v>
       </c>
       <c r="H8">
-        <v>31.1849719490974</v>
+        <v>4.252193</v>
       </c>
       <c r="I8">
-        <v>0.9156871485423209</v>
+        <v>0.03106554210417268</v>
       </c>
       <c r="J8">
-        <v>0.9156871485423209</v>
+        <v>0.03106554210417268</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.46666220010915</v>
+        <v>0.2329506666666667</v>
       </c>
       <c r="N8">
-        <v>0.46666220010915</v>
+        <v>0.698852</v>
       </c>
       <c r="O8">
-        <v>0.2347866238893399</v>
+        <v>0.1037038575914242</v>
       </c>
       <c r="P8">
-        <v>0.2347866238893399</v>
+        <v>0.1037038575914242</v>
       </c>
       <c r="Q8">
-        <v>14.55284762010792</v>
+        <v>0.3301837313817778</v>
       </c>
       <c r="R8">
-        <v>14.55284762010792</v>
+        <v>2.971653582436</v>
       </c>
       <c r="S8">
-        <v>0.2149910941451081</v>
+        <v>0.003221616554371515</v>
       </c>
       <c r="T8">
-        <v>0.2149910941451081</v>
+        <v>0.003221616554371514</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +959,1115 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>1.417397666666667</v>
+      </c>
+      <c r="H9">
+        <v>4.252193</v>
+      </c>
+      <c r="I9">
+        <v>0.03106554210417268</v>
+      </c>
+      <c r="J9">
+        <v>0.03106554210417268</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.4695563333333333</v>
+      </c>
+      <c r="N9">
+        <v>1.408669</v>
+      </c>
+      <c r="O9">
+        <v>0.2090348305069655</v>
+      </c>
+      <c r="P9">
+        <v>0.2090348305069655</v>
+      </c>
+      <c r="Q9">
+        <v>0.6655480512352222</v>
+      </c>
+      <c r="R9">
+        <v>5.989932461117</v>
+      </c>
+      <c r="S9">
+        <v>0.006493780328352737</v>
+      </c>
+      <c r="T9">
+        <v>0.006493780328352738</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>1.417397666666667</v>
+      </c>
+      <c r="H10">
+        <v>4.252193</v>
+      </c>
+      <c r="I10">
+        <v>0.03106554210417268</v>
+      </c>
+      <c r="J10">
+        <v>0.03106554210417268</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1237366666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.37121</v>
+      </c>
+      <c r="O10">
+        <v>0.05508449425130437</v>
+      </c>
+      <c r="P10">
+        <v>0.05508449425130438</v>
+      </c>
+      <c r="Q10">
+        <v>0.1753840626144445</v>
+      </c>
+      <c r="R10">
+        <v>1.57845656353</v>
+      </c>
+      <c r="S10">
+        <v>0.001711229675450954</v>
+      </c>
+      <c r="T10">
+        <v>0.001711229675450954</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>31.1849719490974</v>
-      </c>
-      <c r="H9">
-        <v>31.1849719490974</v>
-      </c>
-      <c r="I9">
-        <v>0.9156871485423209</v>
-      </c>
-      <c r="J9">
-        <v>0.9156871485423209</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.379577312913802</v>
-      </c>
-      <c r="N9">
-        <v>0.379577312913802</v>
-      </c>
-      <c r="O9">
-        <v>0.1909725617013216</v>
-      </c>
-      <c r="P9">
-        <v>0.1909725617013216</v>
-      </c>
-      <c r="Q9">
-        <v>11.83710785573068</v>
-      </c>
-      <c r="R9">
-        <v>11.83710785573068</v>
-      </c>
-      <c r="S9">
-        <v>0.1748711204741056</v>
-      </c>
-      <c r="T9">
-        <v>0.1748711204741056</v>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>1.417397666666667</v>
+      </c>
+      <c r="H11">
+        <v>4.252193</v>
+      </c>
+      <c r="I11">
+        <v>0.03106554210417268</v>
+      </c>
+      <c r="J11">
+        <v>0.03106554210417268</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.437975</v>
+      </c>
+      <c r="N11">
+        <v>1.313925</v>
+      </c>
+      <c r="O11">
+        <v>0.1949756043995181</v>
+      </c>
+      <c r="P11">
+        <v>0.1949756043995181</v>
+      </c>
+      <c r="Q11">
+        <v>0.6207847430583334</v>
+      </c>
+      <c r="R11">
+        <v>5.587062687525</v>
+      </c>
+      <c r="S11">
+        <v>0.006057022847759745</v>
+      </c>
+      <c r="T11">
+        <v>0.006057022847759744</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.8772793333333334</v>
+      </c>
+      <c r="H12">
+        <v>2.631838</v>
+      </c>
+      <c r="I12">
+        <v>0.01922760189868184</v>
+      </c>
+      <c r="J12">
+        <v>0.01922760189868184</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.982088</v>
+      </c>
+      <c r="N12">
+        <v>2.946264</v>
+      </c>
+      <c r="O12">
+        <v>0.437201213250788</v>
+      </c>
+      <c r="P12">
+        <v>0.437201213250788</v>
+      </c>
+      <c r="Q12">
+        <v>0.8615655059146667</v>
+      </c>
+      <c r="R12">
+        <v>7.754089553231999</v>
+      </c>
+      <c r="S12">
+        <v>0.008406330878006855</v>
+      </c>
+      <c r="T12">
+        <v>0.008406330878006855</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.8772793333333334</v>
+      </c>
+      <c r="H13">
+        <v>2.631838</v>
+      </c>
+      <c r="I13">
+        <v>0.01922760189868184</v>
+      </c>
+      <c r="J13">
+        <v>0.01922760189868184</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.2329506666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.698852</v>
+      </c>
+      <c r="O13">
+        <v>0.1037038575914242</v>
+      </c>
+      <c r="P13">
+        <v>0.1037038575914242</v>
+      </c>
+      <c r="Q13">
+        <v>0.2043628055528889</v>
+      </c>
+      <c r="R13">
+        <v>1.839265249976</v>
+      </c>
+      <c r="S13">
+        <v>0.001993976489125498</v>
+      </c>
+      <c r="T13">
+        <v>0.001993976489125498</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.8772793333333334</v>
+      </c>
+      <c r="H14">
+        <v>2.631838</v>
+      </c>
+      <c r="I14">
+        <v>0.01922760189868184</v>
+      </c>
+      <c r="J14">
+        <v>0.01922760189868184</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.4695563333333333</v>
+      </c>
+      <c r="N14">
+        <v>1.408669</v>
+      </c>
+      <c r="O14">
+        <v>0.2090348305069655</v>
+      </c>
+      <c r="P14">
+        <v>0.2090348305069655</v>
+      </c>
+      <c r="Q14">
+        <v>0.4119320670691111</v>
+      </c>
+      <c r="R14">
+        <v>3.707388603622</v>
+      </c>
+      <c r="S14">
+        <v>0.004019238503946366</v>
+      </c>
+      <c r="T14">
+        <v>0.004019238503946367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.8772793333333334</v>
+      </c>
+      <c r="H15">
+        <v>2.631838</v>
+      </c>
+      <c r="I15">
+        <v>0.01922760189868184</v>
+      </c>
+      <c r="J15">
+        <v>0.01922760189868184</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.1237366666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.37121</v>
+      </c>
+      <c r="O15">
+        <v>0.05508449425130437</v>
+      </c>
+      <c r="P15">
+        <v>0.05508449425130438</v>
+      </c>
+      <c r="Q15">
+        <v>0.1085516204422222</v>
+      </c>
+      <c r="R15">
+        <v>0.9769645839800002</v>
+      </c>
+      <c r="S15">
+        <v>0.001059142726254309</v>
+      </c>
+      <c r="T15">
+        <v>0.001059142726254309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.8772793333333334</v>
+      </c>
+      <c r="H16">
+        <v>2.631838</v>
+      </c>
+      <c r="I16">
+        <v>0.01922760189868184</v>
+      </c>
+      <c r="J16">
+        <v>0.01922760189868184</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.437975</v>
+      </c>
+      <c r="N16">
+        <v>1.313925</v>
+      </c>
+      <c r="O16">
+        <v>0.1949756043995181</v>
+      </c>
+      <c r="P16">
+        <v>0.1949756043995181</v>
+      </c>
+      <c r="Q16">
+        <v>0.3842264160166667</v>
+      </c>
+      <c r="R16">
+        <v>3.45803774415</v>
+      </c>
+      <c r="S16">
+        <v>0.003748913301348812</v>
+      </c>
+      <c r="T16">
+        <v>0.003748913301348812</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.5930623333333332</v>
+      </c>
+      <c r="H17">
+        <v>1.779187</v>
+      </c>
+      <c r="I17">
+        <v>0.01299833019331358</v>
+      </c>
+      <c r="J17">
+        <v>0.01299833019331358</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.982088</v>
+      </c>
+      <c r="N17">
+        <v>2.946264</v>
+      </c>
+      <c r="O17">
+        <v>0.437201213250788</v>
+      </c>
+      <c r="P17">
+        <v>0.437201213250788</v>
+      </c>
+      <c r="Q17">
+        <v>0.5824394008186665</v>
+      </c>
+      <c r="R17">
+        <v>5.241954607367999</v>
+      </c>
+      <c r="S17">
+        <v>0.005682885730751048</v>
+      </c>
+      <c r="T17">
+        <v>0.005682885730751049</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.5930623333333332</v>
+      </c>
+      <c r="H18">
+        <v>1.779187</v>
+      </c>
+      <c r="I18">
+        <v>0.01299833019331358</v>
+      </c>
+      <c r="J18">
+        <v>0.01299833019331358</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.2329506666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.698852</v>
+      </c>
+      <c r="O18">
+        <v>0.1037038575914242</v>
+      </c>
+      <c r="P18">
+        <v>0.1037038575914242</v>
+      </c>
+      <c r="Q18">
+        <v>0.1381542659248889</v>
+      </c>
+      <c r="R18">
+        <v>1.243388393324</v>
+      </c>
+      <c r="S18">
+        <v>0.001347976983293701</v>
+      </c>
+      <c r="T18">
+        <v>0.001347976983293701</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.5930623333333332</v>
+      </c>
+      <c r="H19">
+        <v>1.779187</v>
+      </c>
+      <c r="I19">
+        <v>0.01299833019331358</v>
+      </c>
+      <c r="J19">
+        <v>0.01299833019331358</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.4695563333333333</v>
+      </c>
+      <c r="N19">
+        <v>1.408669</v>
+      </c>
+      <c r="O19">
+        <v>0.2090348305069655</v>
+      </c>
+      <c r="P19">
+        <v>0.2090348305069655</v>
+      </c>
+      <c r="Q19">
+        <v>0.278476174678111</v>
+      </c>
+      <c r="R19">
+        <v>2.506285572103</v>
+      </c>
+      <c r="S19">
+        <v>0.002717103748832877</v>
+      </c>
+      <c r="T19">
+        <v>0.002717103748832877</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.5930623333333332</v>
+      </c>
+      <c r="H20">
+        <v>1.779187</v>
+      </c>
+      <c r="I20">
+        <v>0.01299833019331358</v>
+      </c>
+      <c r="J20">
+        <v>0.01299833019331358</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.1237366666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.37121</v>
+      </c>
+      <c r="O20">
+        <v>0.05508449425130437</v>
+      </c>
+      <c r="P20">
+        <v>0.05508449425130438</v>
+      </c>
+      <c r="Q20">
+        <v>0.07338355625222222</v>
+      </c>
+      <c r="R20">
+        <v>0.66045200627</v>
+      </c>
+      <c r="S20">
+        <v>0.0007160064448101381</v>
+      </c>
+      <c r="T20">
+        <v>0.0007160064448101383</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.5930623333333332</v>
+      </c>
+      <c r="H21">
+        <v>1.779187</v>
+      </c>
+      <c r="I21">
+        <v>0.01299833019331358</v>
+      </c>
+      <c r="J21">
+        <v>0.01299833019331358</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.437975</v>
+      </c>
+      <c r="N21">
+        <v>1.313925</v>
+      </c>
+      <c r="O21">
+        <v>0.1949756043995181</v>
+      </c>
+      <c r="P21">
+        <v>0.1949756043995181</v>
+      </c>
+      <c r="Q21">
+        <v>0.2597464754416666</v>
+      </c>
+      <c r="R21">
+        <v>2.337718278975</v>
+      </c>
+      <c r="S21">
+        <v>0.00253435728562582</v>
+      </c>
+      <c r="T21">
+        <v>0.00253435728562582</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>39.84844466666667</v>
+      </c>
+      <c r="H22">
+        <v>119.545334</v>
+      </c>
+      <c r="I22">
+        <v>0.8733706599710751</v>
+      </c>
+      <c r="J22">
+        <v>0.873370659971075</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.982088</v>
+      </c>
+      <c r="N22">
+        <v>2.946264</v>
+      </c>
+      <c r="O22">
+        <v>0.437201213250788</v>
+      </c>
+      <c r="P22">
+        <v>0.437201213250788</v>
+      </c>
+      <c r="Q22">
+        <v>39.13467932579733</v>
+      </c>
+      <c r="R22">
+        <v>352.212113932176</v>
+      </c>
+      <c r="S22">
+        <v>0.3818387121569954</v>
+      </c>
+      <c r="T22">
+        <v>0.3818387121569954</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>39.84844466666667</v>
+      </c>
+      <c r="H23">
+        <v>119.545334</v>
+      </c>
+      <c r="I23">
+        <v>0.8733706599710751</v>
+      </c>
+      <c r="J23">
+        <v>0.873370659971075</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.2329506666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.698852</v>
+      </c>
+      <c r="O23">
+        <v>0.1037038575914242</v>
+      </c>
+      <c r="P23">
+        <v>0.1037038575914242</v>
+      </c>
+      <c r="Q23">
+        <v>9.282721750729777</v>
+      </c>
+      <c r="R23">
+        <v>83.544495756568</v>
+      </c>
+      <c r="S23">
+        <v>0.09057190654616851</v>
+      </c>
+      <c r="T23">
+        <v>0.09057190654616849</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>39.84844466666667</v>
+      </c>
+      <c r="H24">
+        <v>119.545334</v>
+      </c>
+      <c r="I24">
+        <v>0.8733706599710751</v>
+      </c>
+      <c r="J24">
+        <v>0.873370659971075</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.4695563333333333</v>
+      </c>
+      <c r="N24">
+        <v>1.408669</v>
+      </c>
+      <c r="O24">
+        <v>0.2090348305069655</v>
+      </c>
+      <c r="P24">
+        <v>0.2090348305069655</v>
+      </c>
+      <c r="Q24">
+        <v>18.71108956671622</v>
+      </c>
+      <c r="R24">
+        <v>168.399806100446</v>
+      </c>
+      <c r="S24">
+        <v>0.1825648878768103</v>
+      </c>
+      <c r="T24">
+        <v>0.1825648878768103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>39.84844466666667</v>
+      </c>
+      <c r="H25">
+        <v>119.545334</v>
+      </c>
+      <c r="I25">
+        <v>0.8733706599710751</v>
+      </c>
+      <c r="J25">
+        <v>0.873370659971075</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.1237366666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.37121</v>
+      </c>
+      <c r="O25">
+        <v>0.05508449425130437</v>
+      </c>
+      <c r="P25">
+        <v>0.05508449425130438</v>
+      </c>
+      <c r="Q25">
+        <v>4.930713714904445</v>
+      </c>
+      <c r="R25">
+        <v>44.37642343414</v>
+      </c>
+      <c r="S25">
+        <v>0.04810918109843459</v>
+      </c>
+      <c r="T25">
+        <v>0.04810918109843459</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>39.84844466666667</v>
+      </c>
+      <c r="H26">
+        <v>119.545334</v>
+      </c>
+      <c r="I26">
+        <v>0.8733706599710751</v>
+      </c>
+      <c r="J26">
+        <v>0.873370659971075</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.437975</v>
+      </c>
+      <c r="N26">
+        <v>1.313925</v>
+      </c>
+      <c r="O26">
+        <v>0.1949756043995181</v>
+      </c>
+      <c r="P26">
+        <v>0.1949756043995181</v>
+      </c>
+      <c r="Q26">
+        <v>17.45262255288333</v>
+      </c>
+      <c r="R26">
+        <v>157.07360297595</v>
+      </c>
+      <c r="S26">
+        <v>0.1702859722926663</v>
+      </c>
+      <c r="T26">
+        <v>0.1702859722926663</v>
       </c>
     </row>
   </sheetData>
